--- a/6 data.xlsx
+++ b/6 data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="350">
   <si>
     <t>م</t>
   </si>
@@ -1076,7 +1076,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-20B0000]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,13 +1156,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1205,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1337,12 +1349,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,10 +1371,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3084,26 +3114,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="23" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="16" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="49.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="1.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="2.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="57" t="s">
         <v>349</v>
       </c>
@@ -3113,13 +3148,13 @@
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>
-      <c r="H1" s="56"/>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H1" s="54"/>
+    </row>
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3131,7 +3166,7 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="58" t="s">
@@ -3139,7 +3174,7 @@
       </c>
       <c r="H2" s="58"/>
     </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="46">
         <v>1</v>
       </c>
@@ -3161,9 +3196,9 @@
       <c r="G3" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -3186,9 +3221,9 @@
       <c r="G4" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="51"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3196,13 +3231,13 @@
       <c r="B5" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="51">
         <v>23800930</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="50" t="s">
         <v>338</v>
       </c>
       <c r="F5" s="40">
@@ -3211,20 +3246,20 @@
       <c r="G5" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="59" t="s">
         <v>336</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="60">
         <v>27027143</v>
       </c>
       <c r="E6" s="39"/>
@@ -3232,9 +3267,9 @@
         <v>37763</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="51"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3253,14 +3288,14 @@
       <c r="G7" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="17" t="s">
         <v>331</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -3278,12 +3313,12 @@
       <c r="G8" s="30"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="17" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="32" t="s">
@@ -3298,13 +3333,19 @@
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="L9" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="M9" s="60">
+        <v>27027143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="17" t="s">
         <v>325</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -3314,16 +3355,25 @@
       <c r="E10" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="30"/>
       <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="L10" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="M10" s="61">
+        <v>27543404</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="17" t="s">
         <v>322</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3338,13 +3388,20 @@
       <c r="F11" s="10"/>
       <c r="G11" s="30"/>
       <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="L11" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="M11" s="60">
+        <v>25169801</v>
+      </c>
+      <c r="N11" s="63"/>
+    </row>
+    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="17" t="s">
         <v>319</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -3361,13 +3418,19 @@
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L12" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="M12" s="60">
+        <v>23802873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="17" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3382,13 +3445,19 @@
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="L13" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="46">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="17" t="s">
         <v>313</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3406,21 +3475,21 @@
       <c r="G14" s="30"/>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="59" t="s">
         <v>310</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="61">
         <v>27543404</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="62" t="s">
         <v>308</v>
       </c>
       <c r="F15" s="29">
@@ -3429,12 +3498,12 @@
       <c r="G15" s="30"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="17" t="s">
         <v>307</v>
       </c>
       <c r="C16" s="10"/>
@@ -3451,16 +3520,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="60">
         <v>25169801</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="63" t="s">
         <v>303</v>
       </c>
       <c r="F17" s="10"/>
@@ -3472,13 +3541,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="59" t="s">
         <v>302</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="60">
         <v>23802873</v>
       </c>
       <c r="E18" s="39"/>
@@ -3493,7 +3562,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="17" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="10"/>
@@ -3514,7 +3583,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="17" t="s">
         <v>297</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -3579,14 +3648,14 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="59" t="s">
         <v>290</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>289</v>
       </c>
       <c r="D23" s="38"/>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="64" t="s">
         <v>288</v>
       </c>
       <c r="F23" s="40">
@@ -3661,7 +3730,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="17" t="s">
         <v>281</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -3968,7 +4037,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="17" t="s">
         <v>239</v>
       </c>
       <c r="C40" s="10"/>
@@ -4074,7 +4143,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="46">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -4196,7 +4265,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="56" t="s">
         <v>212</v>
       </c>
       <c r="C50" s="32" t="s">
